--- a/biology/Histoire de la zoologie et de la botanique/Constantin_Wesmael/Constantin_Wesmael.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Constantin_Wesmael/Constantin_Wesmael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Wesmael est un entomologiste belge, né le 4 octobre 1798 à Bruxelles et décédé le 26 octobre 1872 à Saint-Josse-ten-Noode.
 D’origine modeste, il obtient une bourse pour faire des études de droit et, passionné dès l’enfance pour l’histoire naturelle, suit dès qu’il le peut des cours de sciences naturelles. Diplômé en 1826, il enseigne d’abord les humanités à Charleroi avant d’enseigner les sciences, en 1831, à l’Athénée de Bruxelles, puis, enfin en 1836, devient professeur de zoologie générale à l’école vétérinaire et d’agriculture, fonction qu’il conserve jusqu’à se retraite en 1866.
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monographie des Braconides de Belgique  : 1835-1838 - 252 p.+ 70 p. + 166 p. - 4 pl.
 Remarques critiques sur diverses espèces d'Ichneumons de la coll. Gravenhorst  : 1859 - 99 p.
